--- a/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1399_female_without_photo_79_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1399_female_without_photo_79_2025-11-24.xlsx
@@ -5563,7 +5563,7 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:০২/০৩/১৯৯২</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G122" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1399_female_without_photo_79_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152614/152614_com_1399_female_without_photo_79_2025-11-24.xlsx
@@ -5563,7 +5563,7 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:০২/০৩/১৯৯২</t>
         </is>
       </c>
       <c r="G122" s="3" t="inlineStr">
